--- a/medicine/Enfance/Affaire_Asunta_Basterra/Affaire_Asunta_Basterra.xlsx
+++ b/medicine/Enfance/Affaire_Asunta_Basterra/Affaire_Asunta_Basterra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'affaire Asunta Basterra est un infanticide survenu en Espagne en 2013[1].
+L'affaire Asunta Basterra est un infanticide survenu en Espagne en 2013.
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>Historique et déroulement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 22 septembre 2013 est découvert le corps sans vie de la jeune Asunta Basterra Porto, une enfant de douze ans, disparue le 21 septembre de la même année sur un chemin forestier de Montouto, sur le territoire de la commune de Teo, en Galice[2], à cinq kilomètres de la résidence secondaire de sa famille. L'enquête menée par la Garde civile a pour nom de code Operación Nenúfar.
-Le juge chargé de l'affaire est José Antonio Vázquez Taín, magistrat célèbre connu pour son implication dans les dossiers du vol du Codex Calixtinus et de l'accident ferroviaire de Saint-Jacques-de-Compostelle en 2013[3].
-Très vite, les soupçons se portent sur les parents adoptifs de l'enfant[4] : l'avocate Rosario Porto Ortega, consule honoraire de France - poste auquel elle succède à son père l'universitaire Francisco Porto Mella -, arrêtée le 24 septembre, et le journaliste Alfonso Basterra Camporro, arrêté le lendemain[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 22 septembre 2013 est découvert le corps sans vie de la jeune Asunta Basterra Porto, une enfant de douze ans, disparue le 21 septembre de la même année sur un chemin forestier de Montouto, sur le territoire de la commune de Teo, en Galice, à cinq kilomètres de la résidence secondaire de sa famille. L'enquête menée par la Garde civile a pour nom de code Operación Nenúfar.
+Le juge chargé de l'affaire est José Antonio Vázquez Taín, magistrat célèbre connu pour son implication dans les dossiers du vol du Codex Calixtinus et de l'accident ferroviaire de Saint-Jacques-de-Compostelle en 2013.
+Très vite, les soupçons se portent sur les parents adoptifs de l'enfant : l'avocate Rosario Porto Ortega, consule honoraire de France - poste auquel elle succède à son père l'universitaire Francisco Porto Mella -, arrêtée le 24 septembre, et le journaliste Alfonso Basterra Camporro, arrêté le lendemain.
 Trois faits marquants sont mis en avant dans le processus judiciaire :
-Le modèle des cordes découvertes sur le corps de la fillette, retrouvées également dans la résidence secondaire de la mère[6];
-La présence, dans l'analyse post-mortem du sang, de la molécule lorazepam en quantités toxiques[7];
-La disparition de l'ordinateur portable et du second téléphone du père au début de l'enquête, matériel retrouvé ensuite[8].
+Le modèle des cordes découvertes sur le corps de la fillette, retrouvées également dans la résidence secondaire de la mère;
+La présence, dans l'analyse post-mortem du sang, de la molécule lorazepam en quantités toxiques;
+La disparition de l'ordinateur portable et du second téléphone du père au début de l'enquête, matériel retrouvé ensuite.
 En novembre 2015, les parents sont condamnés chacun a 18 ans de prison pour assassinat avec circonstance aggravante de parentèle (en espagnol : asesinato con concurrencia del agravante del parentesco).
 </t>
         </is>
@@ -550,12 +564,14 @@
           <t>Répercussions et postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce fait divers dramatique[9] a une répercussion médiatique en Espagne et dans toute l'Europe[10].
-La mère, Rosario Porto, met fin à ses jours le 18 novembre 2020, après plusieurs tentatives de suicide, dans la prison de Brieva (province d'Ávila), où elle purge sa peine[11].
-Le père, Alfonso Basterra, continue de nos jours à clamer son innocence[12].
-La série L'Affaire Asunta, filmée dans les environs de Saint-Jacques-de-Compostelle et diffusée par Netflix en 2024, relate le drame[13] et le procès[14]. Le rôle de la mère, Rosario Porto Ortega, est interprété par l'actrice Candela Peña, révélée en France dans le film Tout sur ma mère de Pedro Almodóvar[15].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ce fait divers dramatique a une répercussion médiatique en Espagne et dans toute l'Europe.
+La mère, Rosario Porto, met fin à ses jours le 18 novembre 2020, après plusieurs tentatives de suicide, dans la prison de Brieva (province d'Ávila), où elle purge sa peine.
+Le père, Alfonso Basterra, continue de nos jours à clamer son innocence.
+La série L'Affaire Asunta, filmée dans les environs de Saint-Jacques-de-Compostelle et diffusée par Netflix en 2024, relate le drame et le procès. Le rôle de la mère, Rosario Porto Ortega, est interprété par l'actrice Candela Peña, révélée en France dans le film Tout sur ma mère de Pedro Almodóvar.</t>
         </is>
       </c>
     </row>
